--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D3E12-A537-4FAF-9A19-CA1827E3163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF1E2BF-2918-4060-983B-B76CE6676362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -613,14 +613,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>杉森</t>
+    <t>杉森 完成</t>
     <rPh sb="0" eb="2">
       <t>スギモリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みんな</t>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲　完成</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲　△</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林　蔭山</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カゲヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水井　舟見</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲　杉森</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スギモリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1017,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1067,7 +1113,9 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1086,7 +1134,9 @@
       <c r="F4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1105,7 +1155,9 @@
       <c r="F5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1124,7 +1176,9 @@
       <c r="F6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1373,7 +1427,9 @@
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1430,7 +1486,9 @@
       <c r="F22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1450,7 +1508,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1470,7 +1528,9 @@
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1489,7 +1549,9 @@
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1508,7 +1570,9 @@
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1784,18 +1848,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1970,6 +2034,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1982,14 +2054,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF1E2BF-2918-4060-983B-B76CE6676362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CCA93-3577-4747-B7CB-953FB2382EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -613,16 +613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>杉森 完成</t>
-    <rPh sb="0" eb="2">
-      <t>スギモリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上甲　完成</t>
     <rPh sb="0" eb="2">
       <t>ジョウコウ</t>
@@ -665,6 +655,13 @@
       <t>ジョウコウ</t>
     </rPh>
     <rPh sb="3" eb="5">
+      <t>スギモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉森 △</t>
+    <rPh sb="0" eb="2">
       <t>スギモリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1063,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1114,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1135,7 +1132,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1156,7 +1153,7 @@
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1177,7 +1174,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1369,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1428,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1487,7 +1484,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1508,7 +1505,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1529,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1550,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1571,7 +1568,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1848,21 +1845,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2033,10 +2015,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2059,20 +2067,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CCA93-3577-4747-B7CB-953FB2382EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2695BD-8D2C-43D5-A8EE-98787753768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -623,13 +623,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上甲　△</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小林　蔭山</t>
     <rPh sb="0" eb="2">
       <t>コバヤシ</t>
@@ -663,6 +656,65 @@
     <t>杉森 △</t>
     <rPh sb="0" eb="2">
       <t>スギモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉森　</t>
+    <rPh sb="0" eb="2">
+      <t>スギモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉森</t>
+    <rPh sb="0" eb="2">
+      <t>スギモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蔭山</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲　</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林　水井</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水井</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟見</t>
+    <rPh sb="0" eb="2">
+      <t>フナミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1060,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1111,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1132,7 +1184,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1153,7 +1205,7 @@
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1174,7 +1226,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1194,7 +1246,9 @@
       <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1213,7 +1267,9 @@
       <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1232,7 +1288,9 @@
       <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1289,7 +1347,9 @@
       <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1308,7 +1368,9 @@
       <c r="F13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1327,7 +1389,9 @@
       <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1366,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1425,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1484,7 +1548,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1505,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1526,7 +1590,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1547,7 +1611,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1568,7 +1632,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1588,7 +1652,9 @@
       <c r="F27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1607,7 +1673,9 @@
       <c r="F28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1626,7 +1694,9 @@
       <c r="F29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1683,7 +1753,9 @@
       <c r="F32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1702,7 +1774,9 @@
       <c r="F33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1721,7 +1795,9 @@
       <c r="F34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1740,7 +1816,9 @@
       <c r="F35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1845,6 +1923,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2015,36 +2108,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2067,9 +2134,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2695BD-8D2C-43D5-A8EE-98787753768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46AFB39-39B7-4A42-AF33-F72B8F1DE1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -663,6 +663,13 @@
     <t>杉森　</t>
     <rPh sb="0" eb="2">
       <t>スギモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1112,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1247,7 +1254,7 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1268,7 +1275,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1289,7 +1296,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1309,7 +1316,9 @@
       <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1328,7 +1337,9 @@
       <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1348,7 +1359,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1369,7 +1380,7 @@
         <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1390,7 +1401,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1489,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1509,7 +1520,9 @@
       <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1548,7 +1561,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1569,7 +1582,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1653,7 +1666,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1695,7 +1708,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1715,7 +1728,9 @@
       <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1734,7 +1749,9 @@
       <c r="F31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1754,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1775,7 +1792,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1796,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1817,7 +1834,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46AFB39-39B7-4A42-AF33-F72B8F1DE1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55EC78-D07B-4B01-B392-647E4E3BDED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -653,13 +653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>杉森 △</t>
-    <rPh sb="0" eb="2">
-      <t>スギモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>杉森　</t>
     <rPh sb="0" eb="2">
       <t>スギモリ</t>
@@ -723,6 +716,10 @@
     <rPh sb="0" eb="2">
       <t>フナミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんな</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1120,7 +1117,7 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1254,7 +1251,7 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1275,7 +1272,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1296,7 +1293,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1317,7 +1314,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1338,7 +1335,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1359,7 +1356,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1380,7 +1377,7 @@
         <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1401,7 +1398,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1441,7 +1438,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1500,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1521,7 +1518,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1561,7 +1558,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1582,7 +1579,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1666,7 +1663,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1687,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1708,7 +1705,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1729,7 +1726,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1750,7 +1747,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1771,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1792,7 +1789,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1813,7 +1810,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1834,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55EC78-D07B-4B01-B392-647E4E3BDED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF6D0D-7901-4F13-8753-F2728383745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -545,10 +545,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>edit.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>java</t>
   </si>
   <si>
@@ -720,6 +716,43 @@
   </si>
   <si>
     <t>みんな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小林　舟見</t>
+    <rPh sb="0" eb="2">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲　水井</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミズイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edit.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水井　舟見　小林</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フナミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コバヤシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1116,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1167,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1188,7 +1221,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1209,7 +1242,7 @@
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1230,7 +1263,7 @@
         <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1251,7 +1284,7 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1272,7 +1305,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1293,7 +1326,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1308,13 +1341,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1329,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1350,13 +1383,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1365,19 +1398,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1386,19 +1419,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1407,16 +1440,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1438,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1458,7 +1491,9 @@
       <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1497,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1518,7 +1553,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1558,7 +1593,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1579,7 +1614,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1600,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1621,7 +1656,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1642,7 +1677,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1663,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1684,7 +1719,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1705,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1726,7 +1761,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1747,7 +1782,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1768,7 +1803,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1789,7 +1824,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1810,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1831,7 +1866,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1851,7 +1886,9 @@
       <c r="F36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1884,10 +1921,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1903,10 +1940,10 @@
         <v>17</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1937,21 +1974,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2122,10 +2144,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2148,20 +2196,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF6D0D-7901-4F13-8753-F2728383745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA755626-FD61-4009-88F4-257005085A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -649,13 +649,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>杉森　</t>
-    <rPh sb="0" eb="2">
-      <t>スギモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上甲</t>
     <rPh sb="0" eb="2">
       <t>ジョウコウ</t>
@@ -746,6 +739,29 @@
     <t>水井　舟見　小林</t>
     <rPh sb="0" eb="2">
       <t>ミズイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フナミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉森　舟見</t>
+    <rPh sb="0" eb="2">
+      <t>スギモリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉森　舟見　小林</t>
+    <rPh sb="0" eb="2">
+      <t>スギモリ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>フナミ</t>
@@ -1149,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1242,7 +1258,7 @@
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1284,7 +1300,7 @@
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1305,7 +1321,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1326,7 +1342,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1341,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1368,7 +1384,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1389,7 +1405,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1410,7 +1426,7 @@
         <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1431,7 +1447,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1471,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1492,7 +1508,7 @@
         <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1532,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1553,7 +1569,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1593,7 +1609,7 @@
         <v>62</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1614,7 +1630,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1698,7 +1714,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1719,7 +1735,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1740,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1761,7 +1777,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1782,7 +1798,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1803,7 +1819,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1824,7 +1840,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1845,7 +1861,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1866,7 +1882,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1887,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">

--- a/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
+++ b/documents/ひとまず完成したもの/ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\ひとまず完成したもの\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA755626-FD61-4009-88F4-257005085A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947E0687-30D2-4AC1-B12C-ECAC42F740B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -768,6 +768,19 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>コバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上甲  蔭山　舟見</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カゲヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フナミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1165,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1384,7 +1397,7 @@
         <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1990,6 +2003,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2160,36 +2188,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2212,9 +2214,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>